--- a/data/output/mercadolivre_items.xlsx
+++ b/data/output/mercadolivre_items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>categoria</t>
   </si>
@@ -34,49 +34,61 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Acessórios para Veículos &gt; Peças de Motos e Quadriciclos &gt; Chassis &gt; Amortecedores &gt; Traseira</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Par Amortecedor Traseiro Titan 150 Ks 2007 2008 2009 Cofap</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 214</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1811316189-par-amortecedor-traseiro-titan-150-ks-2007-2008-2009-cofap-_JM#position=1&amp;search_layout=grid&amp;type=item&amp;tracking_id=ece35222-a6b5-486f-bb00-9e943a53bf09</t>
+    <t xml:space="preserve"> Amortecedor Traseiro Pro Link Bros 150 2012 Cofap Original</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=3Kk07CvbVdEMboexc4nnWpF4JLA9LJpRoR61afFVenBcpLuSJXp1TlfuVRrqNF%2FF7P8nWSb5G%2FLzC58CBwNjYNBf4kJNBQejNqCx6qgFBPSIoHoFIIKsZW5Hjw01G2jjcYYIsJlq1iFC0aBB6HI8OClXTPBp3DNsBXDNEWAUi4d0l6i6ZPPPeA8zc8XFiLr6qBRs5ZNZLwh9i2h1PLdSTwvwjlujyh5Aqkwf6cKMYu9ZgOQ7by4Iwo6tNBq12ri4nm%2BiG%2Bj8RvK3X%2FfkzPZcpqR9tLk8je%2F5XAEobkEGAk5K3LLzRuRo2E01ARmdniPmnWu7A%2FXSSWj%2FKR%2F074i9FCt%2B1MF8Eu8ReJssgQK%2F%2Bq%2F82BGrNow93IwAZZJ7Jz6q69Zi6GDBsCiZktR5EbeSb40yaVKoWLnQ6BkCRq68uz%2BvX4mIQSAJWWf5QoJpNSSPsZhH8s%2BDzjV3cVDxgixI2iagp0ROUj%2BbGzaoHjlsAgnM2rHPiOc7bb3vqMs1vz6ZZUyT9YOixjy%2BL8DC4JgCeRIVHJtj1VrUT1bccxqtj%2FI28MHR%2BMT5BXWaR8fB7W84odN7QkBzWMvYmQt0odfkyBM9ZkUlALyHBBlwrC0Fi%2B%2FhRuKHgTQTgn7QYxULGti4hYarfQHWrxU%3D&amp;rb=x</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Amortecedor Traseiro Prolink Nxr Bros150 2007 Cofap Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 494</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1736801490-amortecedor-traseiro-prolink-nxr-bros150-2007-cofap-original-_JM#position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=ece35222-a6b5-486f-bb00-9e943a53bf09</t>
-  </si>
-  <si>
-    <t>Acessórios para Veículos &gt; Peças de Motos e Quadriciclos &gt; Chassis &gt; Amortecedores</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amortecedor Traseiro Bros 150 2004 Prolink Cofap Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 499</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>https://produto.mercadolivre.com.br/MLB-1275422272-amortecedor-traseiro-bros-150-2004-prolink-cofap-original-_JM#position=3&amp;search_layout=grid&amp;type=item&amp;tracking_id=ece35222-a6b5-486f-bb00-9e943a53bf09</t>
+    <t xml:space="preserve"> Par Amortecedor Traseiro Titan 150 Sport 2008 Origina Cofap</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1835309379-par-amortecedor-traseiro-titan-150-sport-2008-origina-cofap-_JM#position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amortecedor Cofap Pro Link Monoshock Honda Bros 125/150/160</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1909385050-amortecedor-cofap-pro-link-monoshock-honda-bros-125150160-_JM#position=3&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Par Amortecedor Cg Fan 150 Titan 150 2010 Original Cofap Mix</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1835312521-par-amortecedor-cg-fan-150-titan-150-2010-original-cofap-mix-_JM#position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amortecedor Pro Link Nxr Bros 125 150 2004 Cofap Original</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1891320135-amortecedor-pro-link-nxr-bros-125-150-2004-cofap-original-_JM#position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amortecedor Prolink Bros 150 2009 Original Cofap Msc41004</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-2016425998-amortecedor-prolink-bros-150-2009-original-cofap-msc41004-_JM#position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,79 +453,133 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="position=1&amp;search_layout=grid&amp;type=item&amp;tracking_id=ece35222-a6b5-486f-bb00-9e943a53bf09"/>
-    <hyperlink ref="E3" r:id="rId2" location="position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=ece35222-a6b5-486f-bb00-9e943a53bf09"/>
-    <hyperlink ref="E4" r:id="rId3" location="position=3&amp;search_layout=grid&amp;type=item&amp;tracking_id=ece35222-a6b5-486f-bb00-9e943a53bf09"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" location="position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86"/>
+    <hyperlink ref="E4" r:id="rId3" location="position=3&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86"/>
+    <hyperlink ref="E5" r:id="rId4" location="position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86"/>
+    <hyperlink ref="E6" r:id="rId5" location="position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86"/>
+    <hyperlink ref="E7" r:id="rId6" location="position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=6fd11874-f524-4805-aa66-840d1389bf86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
